--- a/Wine_Quality/outputs/train_80_test_20/depth_4/wq_train_80_test_20_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_4/wq_train_80_test_20_depth_4_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.5635359116022099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.3984375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.4668192219679634</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7933006535947712</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9758793969849247</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8751689950428121</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6621621621621622</v>
+        <v>0.8194816800714924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19140625</v>
+        <v>0.9216080402010051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.296969696969697</v>
+        <v>0.8675496688741722</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7853846153846153</v>
+        <v>0.7838461538461539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7853846153846153</v>
+        <v>0.7838461538461539</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7853846153846153</v>
+        <v>0.7838461538461539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7853846153846153</v>
+        <v>0.7838461538461539</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6518209385856445</v>
+        <v>0.461005863891234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.395897936750077</v>
+        <v>0.4400151800670017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4037847927623396</v>
+        <v>0.4447896302807119</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7564212798771622</v>
+        <v>0.7381918961856159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7853846153846153</v>
+        <v>0.7838461538461539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7297992008609934</v>
+        <v>0.7559366471950768</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_4/wq_train_80_test_20_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_4/wq_train_80_test_20_depth_4_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5635359116022099</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3984375</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4668192219679634</v>
+        <v>0.47</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8194816800714924</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9216080402010051</v>
+        <v>0.92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8675496688741722</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7838461538461539</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7838461538461539</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7838461538461539</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7838461538461539</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.461005863891234</v>
+        <v>0.46</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4400151800670017</v>
+        <v>0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4447896302807119</v>
+        <v>0.44</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7381918961856159</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7838461538461539</v>
+        <v>0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7559366471950768</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
